--- a/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. The Homeland Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies will come to order.    The subcommittee meets today to hear what the Department of Homeland Security is doing to secure U.S. Government networks from cyber hackers. The magnitude of the latest breach at the Office of Personnel Management, or OPM, and the impact that it will have on tens of millions of Americans and our National security for decades to come is simply unacceptable.    OPM was warned about its poor IT security. Yet, we still found them asleep at the switch. To put it in perspective, OPM was responsible for safeguarding extremely sensitive data, personnel files, and security clearance information for tens of millions of Federal employees. Yet, OPM's efforts to secure its networks were frankly laughable. The stakes were immense. Yet, the cybersecurity efforts were pathetic. In my opinion, this could be classified as cybersecurity malpractice.    The Federal agency guarding this sensitive information demonstrated gross negligence and willful disregard of earlier warnings. We need to know who in this administration is really in charge and who is truly responsible for securing our Federal Government's civilian information systems.    The nature of the compromised data is particularly concerning because it contained the personally identifiable information, or PII, of what is now known to be at least 14 million Federal and Congressional employees and military personnel. Not only did we fail to protect that PII, we failed to protect the security clearance background check information contained on the Questionnaire for National Security Position form, also known as the SF-86.    The individuals who serve our country, often risking their lives, disclose substantial personal information on these forms to get special clearances to handle our Government's secrets, and they have every right to expect that their information will be safe. But, as we have learned, OPM struggled to implement even the most basic network security protocols.    This was spelled out in the November 2014 inspector general report 1 month before the breach occurred. The Government Accountability Office has drawn similar conclusions. Specifically, the inspector general found lackluster information security governance and even recommended that OPM shut down all of its information systems that lacked the valid authorization.    Additionally, in 2014, DHS presented to OPM a mitigation plan with recommendations for improving its information security. The question then is why the recommendations from DHS and others were not required and fully implemented by OPM.    Unfortunately, the White House response to the OPM breach has been incredibly disappointing. The Federal Government was attacked. Yet, there is no indication that there will be any consequences from these actions. In addition, the U.S. Chief Information Officer, Tony Scott, has called for a, ``30-day cybersecurity sprint,'' for Federal agencies to secure their networks and data.    So the White House is essentially calling on Federal agencies to step up and do in the next 30 days what they were already required to do. Our country's cybersecurity shouldn't be a 30-day sprint exercise, but, rather, a dedicated marathon, a long, sustained, and comprehensive effort to protect our country from escalating and rapidly evolving cyber attacks. This administration's response is superficial. It is not serious, and it doesn't reflect the gravity of the threats facing our Nation right now in cyber space.    It is clear that the Nation is under attack, under siege, by state and non-state actors and our defenses at OPM and in the Federal Government are woefully inadequate. As such, in this hearing today, we will examine the cyber capabilities that DHS is providing to OPM and to other Federal civilian agencies, how quickly these tools are being deployed Government-wide, and, ultimately, what vulnerabilities and gaps remain in our cybersecurity posture.    Last December Congress passed the Federal Information Modernization Act, or FISMA, to give DHS the authority to carry out the operational activities to protect Federal civilian information systems from cyber intrusions. Now that DHS has these authorities, we want to hear how DHS plans to execute the new law and rapidly implement its binding directives and other Federal information security capabilities to more quickly secure the .gov domain.    Additionally, DHS' EINSTEIN and Continuous Diagnostics and Mitigation program, or CDM, were designed to protect Federal civilian agency systems. Yet, not every Federal agency has adopted them. Why is that the case?    Although these programs aren't a silver bullet to prevent further cyber attacks, both play a vital role in what should be a defense-in-depth cybersecurity strategy. Now more than ever DHS needs to rapidly deploy its cyber capabilities and show strong leadership to protect our Government's networks and most sensitive information from cyber hackers.    I also hope that, if nothing else, this latest attack on OPM servers will prove to be a catalyst to get the United States Senate to act and pass the strong and bipartisan House-passed cybersecurity information-sharing legislation.    These bills would, in part, authorize DHS' EINSTEIN program and allow for greater sharing of cyber threat indicators so both the public and private sectors can more effectively block known and malicious cyber intrusions.    From my vantage point as Chairman of this subcommittee and as a former terrorism prosecutor, cybersecurity is National security. The United States Government is under cyber attack from nation-states and criminal groups, and I look forward to hearing from our witnesses today on what the Department of Homeland Security is doing about it.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412432</t>
   </si>
   <si>
-    <t>Cedric L. Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman. Thank you for convening this hearing on DHS' responsibilities in helping all of the Federal agencies secure their cyber networks and databases.    I want to welcome our witnesses, Dr. Ozment, Mr. Wilshusen, and Dr. Gerstein. Thank you for taking the time to appear before us today.    Securing the Federal Government's networks and databases is a monumental task. DHS has been charged with the primary task to coordinate and provide cybersecurity guidance for the many Federal agencies, critical infrastructure sectors, and Government programs, whether it be Government, personnel information, Classified background information, patents, taxpayer data, nuclear facilities, health records, port complexes, or any number of other vital Government services.    However, under the Federal Information Security Modernization Act of 2014, FISMA, the White House Office of Management and Budget is responsible for Federal information security, oversight, and policy issuance.    However, OMB executes its responsibilities in close coordination with its Federal cybersecurity partners, including the Department of Homeland Security and the Department of Commerce's National Institute of Standards and Technology.    Both state and non-state actors are attempting to breach our Government and commercial systems. As President Obama said a few days ago, this problem is not going to go away. It is going to accelerate.    I think we all recognize that certifying the security of information on the Federal Government's networks and systems should remain a core focus of the administration as we here in Congress should continue to be looking at innovative solutions that provide DHS with the authorities to respond quickly to the new challenges as they arise, and Congress must continue our search for legislative initiatives that will help further protect our Nation's critical networks and systems.    As a result of the latest Government network breaches, we have been told that OMB has launched a 30-day cybersecurity sprint, a review and recommendations effort. The review team is made up of OMB, the White House E-Gov Cyber National Security Unit, the National Security Council Cybersecurity Directorate, the Department of Homeland Security, and Department of Defense, among other agencies.    As part of the effort, OMB has instructed Federal agencies to immediately take a number of steps to protect Federal information and assets and improve the resilience of Federal networks.    Specifically, Federal agencies must immediately deploy indicators provided by DHS which can identify priority threat active techniques and tactics and procedures and tools to scan systems and check logs; No. 2, patch critical vulnerabilities without delay and report to OMB and DHS on the progress and challenges within 30 days; No. 3, tighten policies and practices for privileged users; and, No. 4, dramatically accelerate implementation of multi-factor identification, especially for privileged users.    While I am pleased to see the White House taking immediate action, all of the above efforts are generally recognized as security measures that should already be in place, especially in vital Government networks.    I hope to hear today from our witnesses a clear explanation why many of the standard recognized security practices were not in place in Federal agencies and clearly identify the plan that DHS has to make sure and certify that Federal agencies' cybersecurity standards are up to date.    Of particular interest to me in my district and I know to others on this subcommittee is the status of port cybersecurity. Overall maritime ports handle more than $1.3 trillion in cargo annually. The operations of these ports are supported by information and communications systems that, like all other network systems, are susceptible to cyber-related threats.    Failures in these systems could degrade or interrupt operations at ports, including the flow of commerce. Federal agencies--in particular, DHS--and industry stakeholders have specific roles in protecting maritime facilities and ports from physical and cyber threats.    GAO did an audit last year of maritime port cybersecurity efforts to assess actions taken by DHS and two of its front-line component agencies, the U.S. Coast Guard and FEMA, as well as other Federal agencies.    The GAO found that, while the Coast Guard initiated a number of activities and coordinating strategies to improve physical security in specific ports, it has not conducted a risk assessment that fully addresses cyber-related threats, vulnerabilities, and consequences.    The report also noted that FEMA identified enhancing cybersecurity capabilities as a funding priority for the first time in 2013.    I look forward to today's testimony on both of these issues. It will be crucial that stakeholders appropriately plan and allocate resources to protect ports and other maritime facilities from increasingly persistent and pervasive cyber intrusions.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McCaul. I would like to thank Chairman Ratcliffe for his leadership in holding this hearing today.    Our Government, in my opinion, is still reeling from what appears to be the most significant breach of Federal networks in U.S. history. This insidious attack was aimed at Federal employees who handle our National security, many with security clearances working to defend our country. Yet, the administration failed to defend them.    Instead, it appears that Chinese hackers were able to cut through our defenses and extract information about millions of current and former U.S. Government employees with sensitive security clearances.    As one who has filled these out in the past--I know the Chairman has as well in our tenure at the Justice Department--it is astounding to me that these very sensitive documents went unprotected by the administration.    There can be no doubt that this attack will lead to more brazen attempts to steal America's secrets. Yet, there is no telling if we will be lucky enough to spot it the next time. Clearly the administration needs to take this more seriously.    What is equally appalling to me is the administration's response. No Government employee has been held accountable. No foreign adversary has been warned. No one can say with any degree of confidence whether we can stop this from happening again.    We talk often now about how we have entered a new age that requires new rules of the road. It is very true. I think this is a watershed moment. It appears now that a foreign country has invaded our networks and stolen sensitive data.    Yet, the administration's response is not to promise retaliation. Instead, it has promised to add the issue to the agenda of this week's strategic dialogue with China. I would submit that is not strong enough. There are no consequences to the actions.    What if this had been a foreign adversary invading our territory instead of our networks to steal secrets? How would the White House respond then? What if foreign espionage, we caught them physically stealing the paper files? What would be the response? This is the same action, just in the digital world.    The abilities of our cyber adversaries are no secret. The alarm bell has been going off for years. In 2012, Iran hackers hit Saudi Arabia's national oil company, Aramco, destroying 30,000 computers.    Iran has targeted major U.S. banks to shut down websites and restrict Americans' ability to access their accounts. We have seen intrusions into Target, Neiman Marcus, Home Depot, J.P. Morgan. All these were designed to steal the personal information of private citizens.    In December, North Korea used a digital bomb to destroy computer systems at Sony Pictures, an attack that was destructive, but also a cowardly attempt to stifle our freedom of expression.    In just this year we have seen the breaches of two major health care companies, Anthem and Premera, that together affected up to 90 million Americans.    I hope this latest breach will stir our Government to action and, quite frankly, the Congress in a frank acknowledgment that we have fallen behind.    Our Government is responsible for providing for the common defense under the Constitution, and that also means defending our cyber space.    During the last Congress, I led the efforts to strengthen our cybersecurity foundations, and we managed to get five key cybersecurity bills passed into law. We did this with the support of both industry and privacy advocates.    This year we passed legislation in the House to enhance cyber threat information sharing, which possibly could have prevented this attack from occurring if we had the signature threat information to block the breach from China.    In light of this attack--you know, we always say around here it is going to take a big event for Congress to act. I think the big event has happened and now it is time for Congress to act.    The House has acted. It is now time for the Senate to act and pass the bill that we passed out of the House with overwhelming bipartisan support, 355 votes, supported by both industry and privacy.    The Department of Homeland Security has several cyber tools to defend these networks, such as the EINSTEIN and the Continuous Diagnostics and Mitigation program that were authorized in our bill as well.    But these are only effective if they have been deployed to our sprawling and disparate Federal networks. As of now, only half of the Federal civilian agencies have deployed the latest version of EINSTEIN.    I know, Dr. Ozment, you and I have talked about this. I commend your efforts in expanding this now. Getting just to the 50 percent was quite an accomplishment. But I think we want to hear about the expansion all across the Federal Government, which I think would protect the networks better.    This digital frontier and safeguarding it is one of our leading National security challenges of our time, and we, as Americans, need to apply the same innovation, discipline, and creativity that produced the information age into protecting what we have created.    I want to thank the Chairman again for holding this hearing. With that, I yield back.</t>
   </si>
   <si>
@@ -94,18 +85,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Ozment</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ozment. Thank you, Chairman Ratcliffe, Ranking Member Richmond, and Chairman McCaul, Members of the committee. I appreciate the opportunity to appear before you today.    Like you, my fellow panelists, and countless Americans, I am deeply concerned about the recent compromise at OPM, and I am dedicated to ensuring that we take all necessary steps to protect our Federal workforce and to drive forward the cybersecurity of the entire Federal Government.    As a result, I want to focus these remarks on how DHS is accelerating our efforts to protect Federal agencies and help Federal agencies better protect themselves.    To begin, it is important to note that we are now making up for 20 years of underinvestment in cybersecurity across both the public and the private sector. At the same time, we are facing a major challenge in protecting our most sensitive information against sophisticated, well-resourced, and persistent adversaries. This is a complex problem without a simple solution.    To effectively address this challenge, our Federal agencies need to deploy defense-in-depth. Consider protecting a Government facility. Adequate security is not only a fence or a camera or locking the doors of a building, but a combination of these measures and others that, in aggregate, make it difficult for an adversary to gain physical access. Cybersecurity also requires multiple layers of security measures. No one measure is sufficient.    Under legislation passed by this Congress last year, Federal agencies are responsible for their own cybersecurity. To assist them, DHS provides a common baseline of cybersecurity across the civilian government.    It helps agencies manage their cyber risk through four key lines of effort:    First, we protect agencies by providing a common set of capabilities through the EINSTEIN and Continuous Diagnostics and Mitigation, or CDM, programs.    Second, we measure and motivate agencies to implement best practices.    Third, we serve as a hub for information sharing.    Finally, we provided incident response assistance when agencies suffer a cyber intrusion.    In my statement this morning, I will focus on the first area, how DHS provides a baseline of security through EINSTEIN and CDM. I have described the other three areas in my written statement, and I am happy to take your questions on them. Our first line of defense against cyber threats is the EINSTEIN system, which protects agencies at their perimeters.    Returning to the analogy of a Government facility that I mentioned earlier, EINSTEIN 1 is similar to a camera at the road onto the facility that records all traffic and identifies anomalies in the numbers of cars. EINSTEIN 2 adds the ability to detect suspicious cars based upon a watch list. EINSTEIN 2 does not stop the cars, but sounds the alarm if a suspicious car enters the facility.    Agencies report that EINSTEIN 1 and 2 are screening over 90 percent of all Federal civilian traffic. EINSTEIN 1 and 2 played a key role in identifying the recent compromise at the Department of Interior.    The latest phase of the program, known as EINSTEIN 3A, is akin to a guard post at the highway that leads to multiple Government facilities. EINSTEIN 3A uses Classified information to look at the cars and compare them with a watch list. EINSTEIN 3A then actively blocks prohibited cars from entering the facility.    As the Chairman noted, we are accelerating our efforts to protect all civilian agencies with EINSTEIN 3A. The system currently protects 15 Federal civilian agencies with over 930,000 Federal personnel, or approximately 45 percent of the civilian government, with at least one security countermeasure.    We have added EINSTEIN 3A protections to over 20 percent of the Federal civilian government in the last 9 months alone. During this time, EINSTEIN 3A has blocked nearly 550,000 attempts to access potentially malicious websites.    EINSTEIN 3A is a signature-based system. It can only block attacks that it knows about. This is necessary, but not sufficient, for protecting the civilian government. We are also working on adding other technology to the EINSTEIN 3A platform that can block attacks that we have not previously seen.    As we accelerate EINSTEIN deployment, we also recognize that security cannot be achieved through only one type of tool. EINSTEIN is not a silver bullet, and it will never be able to block every threat. For example, it must be complemented with tools to monitor the inside of agency networks.    Our CDM, Continuous Diagnostics and Mitigation Program, helps address this challenge. We have purchased CDM Phase 1 capabilities for 8 agencies covering over 50 percent of the Federal civilian government, and we expect to purchase CDM for 97 percent of the Federal civilian government by the end of this fiscal year.    Now, there's a caveat. The deadlines that I've just given you are when DHS will provide a capability. It takes a few additional months for each agency to fully implement both EINSTEIN and CDM once the services are available. Of course, agencies must supplement EINSTEIN and CDM with additional tools appropriate to the needs of the agency.    I want to thank you again for the legislation Congress passed in December 2014. As you know, additional legislation is needed. This committee and the House have passed a bill authorizing EINSTEIN and establishing DHS as the portal for liability-protected information-sharing between the private sector and the Government. We need information sharing and EINSTEIN authorization legislation passed.    I'd like to conclude by noting that Federal agencies are a rich target and will continue to experience frequent attempted intrusions. As our detection methods improve, we will detect more incidents, incidents that are already occurring, we just didn't know it yet.    The recent breach at OPM is emblematic of this trend, as OPM was able to detect the intrusion by implementing best practices recommended by DHS. We are accelerating the deployment of the tools we have, and we are bringing cutting-edge capabilities on-line. We are asking our partner agencies and Congress to take action and work with us to strengthen the cybersecurity of our Federal agencies.    Thank you again for the opportunity to appear before you today. I look toward to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Dr. Ozment.    The Chair now recognizes Mr. Wilshusen for 5 minutes for his opening statement.</t>
   </si>
   <si>
-    <t>Wilshusen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairman Ratcliffe, Ranking Member Richmond, and Members of the subcommittee, thank you for the opportunity to testify at today's hearing on DHS's efforts to secure the .gov domain.    As you know, the Federal Government faces an array of cyber-based threats to its computer networks and systems, as illustrated by the recent OPM data breaches which affected millions of Federal employees. Such incidents underscore the urgent need for effective implementation of information security programs at Federal agencies.    Since 1997, we have designated Federal information security as a Government-wide high-risk area and, in 2003, expanded the area to include computerized systems supporting the Nation's critical infrastructure. We further expanded this area in 2015 to include protecting the privacy of personally identifiable information.    Today I will discuss several cybersecurity challenges facing Federal agencies and Government-wide initiatives, including those led by DHS aimed at improving agency cybersecurity.    Before I begin, Mr. Chairman, if I may, I'd like to recognize several members of my team who were instrumental in developing my statement and some of the work underpinning it.    With me today is Larry Crosland, who is an assistant director who led this work. Also, Brad Becker, Rosanna Guerrero, Lee McCracken, Kush Malhotra, Chris Businsky, and Scott Pettis also made significant contributions.    Mr. Chairman, most Federal agencies face challenges securing their computer networks and systems. One such challenge is designing and implementing risk-based cybersecurity programs.    Agencies continue to have shortcomings in assessing risks, developing and implementing security controls, and monitoring results. Nineteen of 24 agencies covered by the CFO Act reported that information security weaknesses were either a significant deficiency or material weakness for financial reporting purposes. In addition, IGs at 23 of these agencies cited information security as a major management challenge for their agency.    Overseeing security of contractor-operated systems is another challenge. Agencies rely on contractors to perform a wide variety of IT services. However, five of six agencies we reviewed did not consistently assess or review assessments of their contractors' information security practices and controls, resulting in security lapses.    Even with effective control, security incidents and data breaches can still occur. Agencies need to react swiftly and appropriately when they do. However, seven agencies we reviewed had not consistently implemented key operational practices for responding to data breaches involving personally identifiable information.    GAO and agency IGs have made hundreds of recommendations to assist agencies in addressing these and other challenges. Implementing these recommendations will strengthen agencies' ability to protect their systems and information.    DHS and OMB have also launched several Government-wide initiatives to enhance cybersecurity. One such initiative is requiring strong authentication of users through the use of personal identity verification, or PIV, cards.    These cards provide a more secure method of verifying a user's identity than do passwords. However, OMB recently reported that only 41 percent of agency user accounts at 23 civilian agencies required PIV cards for accessing agency systems.    DHS' Continuous Diagnostics and Mitigation Initiative is intended to provide agencies with tools that identify and prioritize cyber risk on an on-going basis and enable cybersecurity personnel to mitigate the most significant programs or problems first. If effectively implemented, the initiative may assist agencies in resolving long-standing security weaknesses.    The National Cybersecurity Protection System is intended to detect and prevent malicious network traffic from entering Federal civilian networks, among other things. GAO is presently reviewing the implementation of this system. Our preliminary observations indicate that the system's intrusion detection and prevention capabilities may be useful, but are also limited.    While Government-wide initiatives hold promise for bolstering the Federal cybersecurity posture, no single technology or set of practices is sufficient to protect against all cyber threats. A multi-layered defense-in-depth strategy that includes well-trained personnel, effective and consistently applied processes, and appropriate technologies is needed to better manage these risks.    This concludes my statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>412672</t>
   </si>
   <si>
-    <t>Daniel M. Donovan, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you very much, Mr. Chairman.    Doctor, I was just wondering if you could help me understand this a little bit. There has been a lot of criticism in the reportings about the breach that EINSTEIN didn't work.    My understanding is that it did what it was built to do and it was part of a multi-layered approach to securing the data and part of this defense-in-depth theory.    Did EINSTEIN actually do what it was created to do?</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses here today.    I want to point out one thing before I go into my questions. We talk about the rollout of EINSTEIN 3 and where we are today. It is unacceptable that we are at this for the better part of a decade now and still such a small percentage of the .gov network has even basic levels of EINSTEIN 3 on it yet.    We have a long way to go. I understand that we are making progress and rolling out EINSTEIN 3 to protect the .gov network, but it is laughable that it has taken this long to get to this point.    Part of the reason, Mr. Chairman, is the fact that no one is in charge despite the fact that we have a cyber coordinator--and I applaud the work that Michael Daniel does with limited tools, really, at his disposal because he lacks policy and budgetary authority to compel compliance of departments and agencies to do more in cyber. Neither does the Secretary of Homeland Security.    I know that in the last Congress we gave additional authorities through FISMA reform, but still even the Secretary of Homeland Security does not have the ability to reach across Government and tell an agency like OPM they are not doing enough on cyber, which is why we are here today and is why the OPM breach happened, because OPM did not take cybersecurity seriously enough.    It wasn't even like they were coming to Congress and asking for more resources. It was only until fiscal year 2016 that they asked for more money for cyber. It wasn't like they were coming here asking for money and they were told no. They didn't even ask. They weren't taking cyber seriously.    So I hope that, at some point, we will get somebody in charge that does have both policy and budgetary authority who can compel compliance of departments and agencies.    But, with that, Dr. Ozment, I noticed that you were at the OGR hearing earlier this morning, and I have a number of questions about the OPM breach.    So, to begin with--and I know the Chairman touched on this briefly on the encryption side--you said that encrypting data stolen may not have helped in this case. Now, you are not suggesting that we shouldn't encrypt, I take it. I want to make sure that you have the opportunity to be clear.    What is your view on encryption? Because I hope you would still agree that encrypting PII is still a best practice that agencies should be following. Is that correct?</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jackson Lee. Mr. Chairman, thank you for your kindness and that of the Ranking Member, first of all, for this very important hearing, and my dear colleague, Mr. Clawson, for yielding not his time, but his place in order, to allow me just a moment.    I have a meeting with the Secretary--and it is starting as we speak--on some matters. But this committee I have always said has been the front-line committee.    Mr. Langevin is correct that we have been talking about the issues of cybersecurity and protecting data and documents for a very long time. You know, I know there is a myriad of issues that we are discussing, but it disturbs me that, in fact--and we heard this generally--OPM used old software that could not be encrypted. We face this enormous debacle that has many fingerprints. We know that there are many elements to it.    I know that I served as the Chairwoman of the Transportation Security and Infrastructure Protection Committee before the Cybersecurity Committee was created, and we talked about the percentage of infrastructure in the cyber world in the private sector--85 percent--and that we had a small percentage thereof.    So I guess for the record I want to express the recognition of our public servants who work very hard, but my absolute consternation and frustration that we are where we are today, task forces that are being discerned and established not necessarily under this administration.    Because, if it was 2015 under another administration--unfortunately, hard heads made a very difficult spot to sit down on. I am baffled why the Government finds itself in this place.    My colleague indicated resources, that that was one of the issues, but focusing one's mind--we talked about getting the brightest and the best to be able to address this question. We predicted it was coming. Not that we were geniuses, but the writing was on the wall. Everyone was turning to technology. Everyone was using technology.    I am enormously saddened for the millions of Federal workers in this recent incident that are now subjected to personal violations. But from the White House to the vast array of Federal departments, agencies, we are not the standard-bearer for the tightest cybersecurity that we can have, having at hand, I think, a bipartisan commitment that this is a serious issue. Many legislative initiatives have been introduced.    So let me just ask. I indicated to Mr. Clawson I would not be long. I have a number of questions. My staff, Mr. Chairman, is going to frame them in a letter.    Let me indicate that some very thoughtful questions have been put forward, but I do want to heighten this level of frustration. I could listen to the Government Accountability, but let me just ask the two witnesses, being mindful of the time.    You have heard my level of frustration. We are here today. Will we be here next week? Will we be here next month? Will we be here next year? This hacking, breaching, is not going to stop.    So I just want to ask this question: Why is the Government at this place at this time? Why are we here?</t>
   </si>
   <si>
@@ -304,9 +280,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today.    I am going to lay out a couple of observations, two or three maybe, and then you all can respond and tell me if you agree with me or where you think I am wrong.    My first observation is, if one of my nieces and nephews came to me and said they were going to take a job at the Federal Government, I would say, ``Don't do it. Your information is not secure. It is probably a lot less secure than most places you could go to work.''    Therefore, I am not sure how we attract great talent to do the things that we talk about doing in this committee not just for the security, but just to run the Government.    I am not sure that putting employees at this kind of risk will attract ``A'' players to work in the Government. Just all of my instincts tell me there is going to be residual impact from these kind of breaches that impact how well the Government does across the board. That is my first observation.    My second observation is, if I was sitting there running that enterprise, I would say to myself, ``Delete, delete, and more delete.'' My guess is that there is a lot of legacy data that aren't mission-critical right now, right now, particularly employees that have come and gone, records that are years old.    I know you are going to tell me you can't. But all of my own managerial experience would say to delete the hell out of this so that, even though that might make our job more difficult in the future, it will make the hacker's job impossible. He can't hack what doesn't exist.    My third observation would be, from a managerial perspective, to decentralize. Even if you roll it up on the internet in summary format later, decentralize. Decentralize everywhere you can.    I understand that everybody wants an ERP on a centralized basis, but do that at a summary level and keep the data decentralized so that the hacker's job is much more complicated and you don't have a mother lode of data that he can get into.    Now, I know you are going to take issue with those things. But if this was my board of directors and you all came in with this problem to me, those would be my first three reactions. If we ignore those outcomes and those possible solutions, it seems to me that we are living in yesterday's world.    Now, I know you are going to tell me why what I say is impracticable, but I still want to hear from you.</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    I know it is a little unexpected. Sorry to be late to the game here.    I am thinking about like the data services hub and the law that we have in place now in particular where you are required by law to be involved in the Government and then, by transposition, your data is then within the Government purview and then we don't necessarily have the best systems, maybe, that we could or should and how we also, as a Government, treat private entities that have been hacked and we penalize them for having not done enough soon enough or notified appropriately or what have you.    I don't know how we have the moral high ground, as the Federal Government in this, you know, and we are not necessarily talking about the particular OPM breach, but because these things happen on a--at least the hacks happen on a regular basis. Right? We know that there are those who have been hacked and those who don't know it yet. Right? That is kind of how things go.    So DHS, I think, has done everything within their current power. Right? They have advised. They have urged other agencies, ``This is the gold standard. This is where you need to be.'' But they still have no authority to force the agencies, like OPM or anybody else.    They can tell them where they think they should be based on what DHS knows. ``This is why we have the Department of Homeland Security, among other reasons, is to determine threats that we have and solutions sets'' and so on and so forth. So they can advise, but they have no authority.    So, in a broad sense, my question to you would be: Should DHS have the authority regarding other agencies to impose--we are talking about individual citizen's data which, in this particular instance, not necessarily OPM, but the data services hub associated with the ACA.    You are mandated by Federal law to have your data, everything about you, be in that repository. If that is the case, should it be DHS? Should they have the authority? If not, who? If not anybody, then what is the solution set to make sure that agencies are on the cutting edge of safeguarding America's data?</t>
   </si>
   <si>
@@ -377,9 +347,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. You may be seated.    Dr. Gerstein's full statement will appear in the record.    The Chair recognizes you now for 5 minutes for an opening statement.</t>
-  </si>
-  <si>
-    <t>Gerstein</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gerstein. Well, thank you. Good afternoon.    Chairman Ratcliffe, Ranking Member Richmond, and distinguished Members of the subcommittee, I thank you for the opportunity to testify today on the strategies for defending U.S. Government networks in cyberspace.    Recent events occurring on U.S. Government networks over the past several years, punctuated most recently by the OPM breach, demonstrate clearly the need for developing and maintaining capabilities to assess the status of the Government's internal networks and protect them from intrusion.    These events have also underscored concerns about the growing sophistication of the threat and the risk posed to personal data, Government networks, and even mission assurance.    Two foundational elements of the Department of Homeland Security's cybersecurity program are EINSTEIN, also called EINSTEIN 3A, and Continuous Diagnostics and Mitigation, or CDM. The two systems are designed to work in tandem, with EINSTEIN focusing on keeping threats out of Federal networks and CDM identifying them when the threats are inside the Government networks. The phased rollouts of both CDM and EINSTEIN are expected to continue over the next several years.    Now, despite recent progress, critics have argued that both programs have taken too long to implement, and I have to say there is some validity to these concerns. However, CDM is now at a point in development and deployment where additional resources could accelerate the program. EINSTEIN, on the other hand, still requires additional development and coordination with internet service providers, which will be contracted to implement the program.    In my judgment, both programs are necessary, but not sufficient for ensuring the security of Government networks. Therefore, even with EINSTEIN and CDM, more will be needed to defend Government networks in cyber space.    For the remainder of my remarks, I would like to provide a more strategic look at this issue. Now, the internet is a complex system of systems, requiring a comprehensive approach to ensuring security across the vast Government network. Any single approach or program will be insufficient to ensure security in cyber space. As such, defense-in-depth strategies will be essential for securing Government networks.    Now, when considering the development of a comprehensive cybersecurity approach, one must examine how new policies and processes, improvements to the internet architecture, hardware and software hardening, and personnel training and education must be combined into a system that will provide security, privacy, and resiliency.    Inherent in efforts to secure the Federal cyberspace is the critical need for a National cybersecurity strategy. Such a document would include articulation of concepts for governance of the .gov domain in addition to cyber doctrine for deterrence, denial, attribution, response, and resilience. Today no such doctrine exists.    It is my belief that the U.S. Government is at a crossroads concerning cybersecurity. The goal to date has been to balance two competing demands: Availability of data and security of the enterprise.    As recent breaches have demonstrated over the past several years and with the OPM breach as an exclamation point, it is time to consider developing secure enclaves to protect key Government information, data, and networks.    The technology exists today to re-architect the Government internet systems, and several agencies within the National security community have implemented such re-engineering with good results.    Implementing these approaches to modernize and improve the security architectures will require resources and focused attention, both of which Congress and the Executive branch can provide.    Appropriate funding for research, development, and acquisition programs remains another foundational element in the critical race to secure Federal Government networks. Government must partner with the cyber industries to ensure the pipeline of critical solutions continues to be developed.    Finally, workforce issues both for cyber professionals that manage the Government networks and for the broader Government workforce that utilizes the network must be considered as a top priority.    In the Government's cyber space, the security of the overall network is directly linked to the security of each of the nodes, to include the individuals operating each terminal device.    I appreciate the opportunity to discuss recommendations to improve cybersecurity in our Government networks and, thereby, the homeland security of our Nation, and I look forward to your questions. Thank you.</t>
@@ -868,11 +835,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -894,11 +859,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -918,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -946,11 +907,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -970,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -998,11 +955,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1024,11 +979,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1050,11 +1003,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1074,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1102,11 +1051,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1126,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1154,11 +1099,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1178,13 +1121,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1206,11 +1147,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1230,13 +1169,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1258,11 +1195,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1282,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1310,11 +1243,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1334,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1362,11 +1291,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1386,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1414,11 +1339,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1438,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1466,11 +1387,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1490,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1518,11 +1435,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1542,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1570,11 +1483,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1594,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1620,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1646,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1672,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1698,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1724,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1750,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1776,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1802,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1830,11 +1723,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1854,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>58</v>
-      </c>
-      <c r="G40" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1880,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1906,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1932,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1958,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>58</v>
-      </c>
-      <c r="G44" t="s">
-        <v>59</v>
-      </c>
-      <c r="H44" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1984,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2010,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2038,11 +1915,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2062,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2088,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2114,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2140,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2166,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2192,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2218,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
-      </c>
-      <c r="G54" t="s">
+        <v>62</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
         <v>69</v>
-      </c>
-      <c r="H54" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2244,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2270,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2298,11 +2155,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2322,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2348,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2374,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2400,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G61" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2426,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2452,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2478,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>80</v>
-      </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-      <c r="H64" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2504,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
         <v>81</v>
-      </c>
-      <c r="H65" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2530,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2556,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2582,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2608,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2636,11 +2467,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2660,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2686,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2712,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2738,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2764,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
-      </c>
-      <c r="G75" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2790,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2816,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
-      </c>
-      <c r="G77" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2842,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2868,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
-      </c>
-      <c r="G79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
         <v>96</v>
-      </c>
-      <c r="H79" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2894,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
-      </c>
-      <c r="G80" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2920,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s">
-        <v>96</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2948,11 +2755,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2972,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G83" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2998,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3024,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G85" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3050,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3076,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
-      </c>
-      <c r="G87" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3102,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3128,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3156,11 +2947,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3182,11 +2971,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3208,11 +2995,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3232,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3260,11 +3043,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3284,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3312,11 +3091,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3336,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3364,11 +3139,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3388,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3416,11 +3187,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3440,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>68</v>
-      </c>
-      <c r="G101" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3466,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3492,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>68</v>
-      </c>
-      <c r="G103" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3518,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3544,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3570,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3596,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>68</v>
-      </c>
-      <c r="G107" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3624,11 +3379,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3648,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>109</v>
-      </c>
-      <c r="G109" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3674,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3700,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>109</v>
-      </c>
-      <c r="G111" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3726,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3754,11 +3499,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3778,13 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3804,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
-      </c>
-      <c r="G115" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3830,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>15</v>
-      </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3856,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>109</v>
-      </c>
-      <c r="G117" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3882,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3908,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>109</v>
-      </c>
-      <c r="G119" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3934,13 +3665,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>121</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3960,13 +3689,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>109</v>
-      </c>
-      <c r="G121" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3988,11 +3715,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. The Homeland Subcommittee on Cybersecurity, Infrastructure Protection, and Security Technologies will come to order.    The subcommittee meets today to hear what the Department of Homeland Security is doing to secure U.S. Government networks from cyber hackers. The magnitude of the latest breach at the Office of Personnel Management, or OPM, and the impact that it will have on tens of millions of Americans and our National security for decades to come is simply unacceptable.    OPM was warned about its poor IT security. Yet, we still found them asleep at the switch. To put it in perspective, OPM was responsible for safeguarding extremely sensitive data, personnel files, and security clearance information for tens of millions of Federal employees. Yet, OPM's efforts to secure its networks were frankly laughable. The stakes were immense. Yet, the cybersecurity efforts were pathetic. In my opinion, this could be classified as cybersecurity malpractice.    The Federal agency guarding this sensitive information demonstrated gross negligence and willful disregard of earlier warnings. We need to know who in this administration is really in charge and who is truly responsible for securing our Federal Government's civilian information systems.    The nature of the compromised data is particularly concerning because it contained the personally identifiable information, or PII, of what is now known to be at least 14 million Federal and Congressional employees and military personnel. Not only did we fail to protect that PII, we failed to protect the security clearance background check information contained on the Questionnaire for National Security Position form, also known as the SF-86.    The individuals who serve our country, often risking their lives, disclose substantial personal information on these forms to get special clearances to handle our Government's secrets, and they have every right to expect that their information will be safe. But, as we have learned, OPM struggled to implement even the most basic network security protocols.    This was spelled out in the November 2014 inspector general report 1 month before the breach occurred. The Government Accountability Office has drawn similar conclusions. Specifically, the inspector general found lackluster information security governance and even recommended that OPM shut down all of its information systems that lacked the valid authorization.    Additionally, in 2014, DHS presented to OPM a mitigation plan with recommendations for improving its information security. The question then is why the recommendations from DHS and others were not required and fully implemented by OPM.    Unfortunately, the White House response to the OPM breach has been incredibly disappointing. The Federal Government was attacked. Yet, there is no indication that there will be any consequences from these actions. In addition, the U.S. Chief Information Officer, Tony Scott, has called for a, ``30-day cybersecurity sprint,'' for Federal agencies to secure their networks and data.    So the White House is essentially calling on Federal agencies to step up and do in the next 30 days what they were already required to do. Our country's cybersecurity shouldn't be a 30-day sprint exercise, but, rather, a dedicated marathon, a long, sustained, and comprehensive effort to protect our country from escalating and rapidly evolving cyber attacks. This administration's response is superficial. It is not serious, and it doesn't reflect the gravity of the threats facing our Nation right now in cyber space.    It is clear that the Nation is under attack, under siege, by state and non-state actors and our defenses at OPM and in the Federal Government are woefully inadequate. As such, in this hearing today, we will examine the cyber capabilities that DHS is providing to OPM and to other Federal civilian agencies, how quickly these tools are being deployed Government-wide, and, ultimately, what vulnerabilities and gaps remain in our cybersecurity posture.    Last December Congress passed the Federal Information Modernization Act, or FISMA, to give DHS the authority to carry out the operational activities to protect Federal civilian information systems from cyber intrusions. Now that DHS has these authorities, we want to hear how DHS plans to execute the new law and rapidly implement its binding directives and other Federal information security capabilities to more quickly secure the .gov domain.    Additionally, DHS' EINSTEIN and Continuous Diagnostics and Mitigation program, or CDM, were designed to protect Federal civilian agency systems. Yet, not every Federal agency has adopted them. Why is that the case?    Although these programs aren't a silver bullet to prevent further cyber attacks, both play a vital role in what should be a defense-in-depth cybersecurity strategy. Now more than ever DHS needs to rapidly deploy its cyber capabilities and show strong leadership to protect our Government's networks and most sensitive information from cyber hackers.    I also hope that, if nothing else, this latest attack on OPM servers will prove to be a catalyst to get the United States Senate to act and pass the strong and bipartisan House-passed cybersecurity information-sharing legislation.    These bills would, in part, authorize DHS' EINSTEIN program and allow for greater sharing of cyber threat indicators so both the public and private sectors can more effectively block known and malicious cyber intrusions.    From my vantage point as Chairman of this subcommittee and as a former terrorism prosecutor, cybersecurity is National security. The United States Government is under cyber attack from nation-states and criminal groups, and I look forward to hearing from our witnesses today on what the Department of Homeland Security is doing about it.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Cedric</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman. Thank you for convening this hearing on DHS' responsibilities in helping all of the Federal agencies secure their cyber networks and databases.    I want to welcome our witnesses, Dr. Ozment, Mr. Wilshusen, and Dr. Gerstein. Thank you for taking the time to appear before us today.    Securing the Federal Government's networks and databases is a monumental task. DHS has been charged with the primary task to coordinate and provide cybersecurity guidance for the many Federal agencies, critical infrastructure sectors, and Government programs, whether it be Government, personnel information, Classified background information, patents, taxpayer data, nuclear facilities, health records, port complexes, or any number of other vital Government services.    However, under the Federal Information Security Modernization Act of 2014, FISMA, the White House Office of Management and Budget is responsible for Federal information security, oversight, and policy issuance.    However, OMB executes its responsibilities in close coordination with its Federal cybersecurity partners, including the Department of Homeland Security and the Department of Commerce's National Institute of Standards and Technology.    Both state and non-state actors are attempting to breach our Government and commercial systems. As President Obama said a few days ago, this problem is not going to go away. It is going to accelerate.    I think we all recognize that certifying the security of information on the Federal Government's networks and systems should remain a core focus of the administration as we here in Congress should continue to be looking at innovative solutions that provide DHS with the authorities to respond quickly to the new challenges as they arise, and Congress must continue our search for legislative initiatives that will help further protect our Nation's critical networks and systems.    As a result of the latest Government network breaches, we have been told that OMB has launched a 30-day cybersecurity sprint, a review and recommendations effort. The review team is made up of OMB, the White House E-Gov Cyber National Security Unit, the National Security Council Cybersecurity Directorate, the Department of Homeland Security, and Department of Defense, among other agencies.    As part of the effort, OMB has instructed Federal agencies to immediately take a number of steps to protect Federal information and assets and improve the resilience of Federal networks.    Specifically, Federal agencies must immediately deploy indicators provided by DHS which can identify priority threat active techniques and tactics and procedures and tools to scan systems and check logs; No. 2, patch critical vulnerabilities without delay and report to OMB and DHS on the progress and challenges within 30 days; No. 3, tighten policies and practices for privileged users; and, No. 4, dramatically accelerate implementation of multi-factor identification, especially for privileged users.    While I am pleased to see the White House taking immediate action, all of the above efforts are generally recognized as security measures that should already be in place, especially in vital Government networks.    I hope to hear today from our witnesses a clear explanation why many of the standard recognized security practices were not in place in Federal agencies and clearly identify the plan that DHS has to make sure and certify that Federal agencies' cybersecurity standards are up to date.    Of particular interest to me in my district and I know to others on this subcommittee is the status of port cybersecurity. Overall maritime ports handle more than $1.3 trillion in cargo annually. The operations of these ports are supported by information and communications systems that, like all other network systems, are susceptible to cyber-related threats.    Failures in these systems could degrade or interrupt operations at ports, including the flow of commerce. Federal agencies--in particular, DHS--and industry stakeholders have specific roles in protecting maritime facilities and ports from physical and cyber threats.    GAO did an audit last year of maritime port cybersecurity efforts to assess actions taken by DHS and two of its front-line component agencies, the U.S. Coast Guard and FEMA, as well as other Federal agencies.    The GAO found that, while the Coast Guard initiated a number of activities and coordinating strategies to improve physical security in specific ports, it has not conducted a risk assessment that fully addresses cyber-related threats, vulnerabilities, and consequences.    The report also noted that FEMA identified enhancing cybersecurity capabilities as a funding priority for the first time in 2013.    I look forward to today's testimony on both of these issues. It will be crucial that stakeholders appropriately plan and allocate resources to protect ports and other maritime facilities from increasingly persistent and pervasive cyber intrusions.    With that, Mr. Chairman, I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McCaul. I would like to thank Chairman Ratcliffe for his leadership in holding this hearing today.    Our Government, in my opinion, is still reeling from what appears to be the most significant breach of Federal networks in U.S. history. This insidious attack was aimed at Federal employees who handle our National security, many with security clearances working to defend our country. Yet, the administration failed to defend them.    Instead, it appears that Chinese hackers were able to cut through our defenses and extract information about millions of current and former U.S. Government employees with sensitive security clearances.    As one who has filled these out in the past--I know the Chairman has as well in our tenure at the Justice Department--it is astounding to me that these very sensitive documents went unprotected by the administration.    There can be no doubt that this attack will lead to more brazen attempts to steal America's secrets. Yet, there is no telling if we will be lucky enough to spot it the next time. Clearly the administration needs to take this more seriously.    What is equally appalling to me is the administration's response. No Government employee has been held accountable. No foreign adversary has been warned. No one can say with any degree of confidence whether we can stop this from happening again.    We talk often now about how we have entered a new age that requires new rules of the road. It is very true. I think this is a watershed moment. It appears now that a foreign country has invaded our networks and stolen sensitive data.    Yet, the administration's response is not to promise retaliation. Instead, it has promised to add the issue to the agenda of this week's strategic dialogue with China. I would submit that is not strong enough. There are no consequences to the actions.    What if this had been a foreign adversary invading our territory instead of our networks to steal secrets? How would the White House respond then? What if foreign espionage, we caught them physically stealing the paper files? What would be the response? This is the same action, just in the digital world.    The abilities of our cyber adversaries are no secret. The alarm bell has been going off for years. In 2012, Iran hackers hit Saudi Arabia's national oil company, Aramco, destroying 30,000 computers.    Iran has targeted major U.S. banks to shut down websites and restrict Americans' ability to access their accounts. We have seen intrusions into Target, Neiman Marcus, Home Depot, J.P. Morgan. All these were designed to steal the personal information of private citizens.    In December, North Korea used a digital bomb to destroy computer systems at Sony Pictures, an attack that was destructive, but also a cowardly attempt to stifle our freedom of expression.    In just this year we have seen the breaches of two major health care companies, Anthem and Premera, that together affected up to 90 million Americans.    I hope this latest breach will stir our Government to action and, quite frankly, the Congress in a frank acknowledgment that we have fallen behind.    Our Government is responsible for providing for the common defense under the Constitution, and that also means defending our cyber space.    During the last Congress, I led the efforts to strengthen our cybersecurity foundations, and we managed to get five key cybersecurity bills passed into law. We did this with the support of both industry and privacy advocates.    This year we passed legislation in the House to enhance cyber threat information sharing, which possibly could have prevented this attack from occurring if we had the signature threat information to block the breach from China.    In light of this attack--you know, we always say around here it is going to take a big event for Congress to act. I think the big event has happened and now it is time for Congress to act.    The House has acted. It is now time for the Senate to act and pass the bill that we passed out of the House with overwhelming bipartisan support, 355 votes, supported by both industry and privacy.    The Department of Homeland Security has several cyber tools to defend these networks, such as the EINSTEIN and the Continuous Diagnostics and Mitigation program that were authorized in our bill as well.    But these are only effective if they have been deployed to our sprawling and disparate Federal networks. As of now, only half of the Federal civilian agencies have deployed the latest version of EINSTEIN.    I know, Dr. Ozment, you and I have talked about this. I commend your efforts in expanding this now. Getting just to the 50 percent was quite an accomplishment. But I think we want to hear about the expansion all across the Federal Government, which I think would protect the networks better.    This digital frontier and safeguarding it is one of our leading National security challenges of our time, and we, as Americans, need to apply the same innovation, discipline, and creativity that produced the information age into protecting what we have created.    I want to thank the Chairman again for holding this hearing. With that, I yield back.</t>
   </si>
   <si>
@@ -85,12 +106,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Ozment</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ozment. Thank you, Chairman Ratcliffe, Ranking Member Richmond, and Chairman McCaul, Members of the committee. I appreciate the opportunity to appear before you today.    Like you, my fellow panelists, and countless Americans, I am deeply concerned about the recent compromise at OPM, and I am dedicated to ensuring that we take all necessary steps to protect our Federal workforce and to drive forward the cybersecurity of the entire Federal Government.    As a result, I want to focus these remarks on how DHS is accelerating our efforts to protect Federal agencies and help Federal agencies better protect themselves.    To begin, it is important to note that we are now making up for 20 years of underinvestment in cybersecurity across both the public and the private sector. At the same time, we are facing a major challenge in protecting our most sensitive information against sophisticated, well-resourced, and persistent adversaries. This is a complex problem without a simple solution.    To effectively address this challenge, our Federal agencies need to deploy defense-in-depth. Consider protecting a Government facility. Adequate security is not only a fence or a camera or locking the doors of a building, but a combination of these measures and others that, in aggregate, make it difficult for an adversary to gain physical access. Cybersecurity also requires multiple layers of security measures. No one measure is sufficient.    Under legislation passed by this Congress last year, Federal agencies are responsible for their own cybersecurity. To assist them, DHS provides a common baseline of cybersecurity across the civilian government.    It helps agencies manage their cyber risk through four key lines of effort:    First, we protect agencies by providing a common set of capabilities through the EINSTEIN and Continuous Diagnostics and Mitigation, or CDM, programs.    Second, we measure and motivate agencies to implement best practices.    Third, we serve as a hub for information sharing.    Finally, we provided incident response assistance when agencies suffer a cyber intrusion.    In my statement this morning, I will focus on the first area, how DHS provides a baseline of security through EINSTEIN and CDM. I have described the other three areas in my written statement, and I am happy to take your questions on them. Our first line of defense against cyber threats is the EINSTEIN system, which protects agencies at their perimeters.    Returning to the analogy of a Government facility that I mentioned earlier, EINSTEIN 1 is similar to a camera at the road onto the facility that records all traffic and identifies anomalies in the numbers of cars. EINSTEIN 2 adds the ability to detect suspicious cars based upon a watch list. EINSTEIN 2 does not stop the cars, but sounds the alarm if a suspicious car enters the facility.    Agencies report that EINSTEIN 1 and 2 are screening over 90 percent of all Federal civilian traffic. EINSTEIN 1 and 2 played a key role in identifying the recent compromise at the Department of Interior.    The latest phase of the program, known as EINSTEIN 3A, is akin to a guard post at the highway that leads to multiple Government facilities. EINSTEIN 3A uses Classified information to look at the cars and compare them with a watch list. EINSTEIN 3A then actively blocks prohibited cars from entering the facility.    As the Chairman noted, we are accelerating our efforts to protect all civilian agencies with EINSTEIN 3A. The system currently protects 15 Federal civilian agencies with over 930,000 Federal personnel, or approximately 45 percent of the civilian government, with at least one security countermeasure.    We have added EINSTEIN 3A protections to over 20 percent of the Federal civilian government in the last 9 months alone. During this time, EINSTEIN 3A has blocked nearly 550,000 attempts to access potentially malicious websites.    EINSTEIN 3A is a signature-based system. It can only block attacks that it knows about. This is necessary, but not sufficient, for protecting the civilian government. We are also working on adding other technology to the EINSTEIN 3A platform that can block attacks that we have not previously seen.    As we accelerate EINSTEIN deployment, we also recognize that security cannot be achieved through only one type of tool. EINSTEIN is not a silver bullet, and it will never be able to block every threat. For example, it must be complemented with tools to monitor the inside of agency networks.    Our CDM, Continuous Diagnostics and Mitigation Program, helps address this challenge. We have purchased CDM Phase 1 capabilities for 8 agencies covering over 50 percent of the Federal civilian government, and we expect to purchase CDM for 97 percent of the Federal civilian government by the end of this fiscal year.    Now, there's a caveat. The deadlines that I've just given you are when DHS will provide a capability. It takes a few additional months for each agency to fully implement both EINSTEIN and CDM once the services are available. Of course, agencies must supplement EINSTEIN and CDM with additional tools appropriate to the needs of the agency.    I want to thank you again for the legislation Congress passed in December 2014. As you know, additional legislation is needed. This committee and the House have passed a bill authorizing EINSTEIN and establishing DHS as the portal for liability-protected information-sharing between the private sector and the Government. We need information sharing and EINSTEIN authorization legislation passed.    I'd like to conclude by noting that Federal agencies are a rich target and will continue to experience frequent attempted intrusions. As our detection methods improve, we will detect more incidents, incidents that are already occurring, we just didn't know it yet.    The recent breach at OPM is emblematic of this trend, as OPM was able to detect the intrusion by implementing best practices recommended by DHS. We are accelerating the deployment of the tools we have, and we are bringing cutting-edge capabilities on-line. We are asking our partner agencies and Congress to take action and work with us to strengthen the cybersecurity of our Federal agencies.    Thank you again for the opportunity to appear before you today. I look toward to any questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Dr. Ozment.    The Chair now recognizes Mr. Wilshusen for 5 minutes for his opening statement.</t>
   </si>
   <si>
+    <t>Wilshusen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilshusen. Chairman Ratcliffe, Ranking Member Richmond, and Members of the subcommittee, thank you for the opportunity to testify at today's hearing on DHS's efforts to secure the .gov domain.    As you know, the Federal Government faces an array of cyber-based threats to its computer networks and systems, as illustrated by the recent OPM data breaches which affected millions of Federal employees. Such incidents underscore the urgent need for effective implementation of information security programs at Federal agencies.    Since 1997, we have designated Federal information security as a Government-wide high-risk area and, in 2003, expanded the area to include computerized systems supporting the Nation's critical infrastructure. We further expanded this area in 2015 to include protecting the privacy of personally identifiable information.    Today I will discuss several cybersecurity challenges facing Federal agencies and Government-wide initiatives, including those led by DHS aimed at improving agency cybersecurity.    Before I begin, Mr. Chairman, if I may, I'd like to recognize several members of my team who were instrumental in developing my statement and some of the work underpinning it.    With me today is Larry Crosland, who is an assistant director who led this work. Also, Brad Becker, Rosanna Guerrero, Lee McCracken, Kush Malhotra, Chris Businsky, and Scott Pettis also made significant contributions.    Mr. Chairman, most Federal agencies face challenges securing their computer networks and systems. One such challenge is designing and implementing risk-based cybersecurity programs.    Agencies continue to have shortcomings in assessing risks, developing and implementing security controls, and monitoring results. Nineteen of 24 agencies covered by the CFO Act reported that information security weaknesses were either a significant deficiency or material weakness for financial reporting purposes. In addition, IGs at 23 of these agencies cited information security as a major management challenge for their agency.    Overseeing security of contractor-operated systems is another challenge. Agencies rely on contractors to perform a wide variety of IT services. However, five of six agencies we reviewed did not consistently assess or review assessments of their contractors' information security practices and controls, resulting in security lapses.    Even with effective control, security incidents and data breaches can still occur. Agencies need to react swiftly and appropriately when they do. However, seven agencies we reviewed had not consistently implemented key operational practices for responding to data breaches involving personally identifiable information.    GAO and agency IGs have made hundreds of recommendations to assist agencies in addressing these and other challenges. Implementing these recommendations will strengthen agencies' ability to protect their systems and information.    DHS and OMB have also launched several Government-wide initiatives to enhance cybersecurity. One such initiative is requiring strong authentication of users through the use of personal identity verification, or PIV, cards.    These cards provide a more secure method of verifying a user's identity than do passwords. However, OMB recently reported that only 41 percent of agency user accounts at 23 civilian agencies required PIV cards for accessing agency systems.    DHS' Continuous Diagnostics and Mitigation Initiative is intended to provide agencies with tools that identify and prioritize cyber risk on an on-going basis and enable cybersecurity personnel to mitigate the most significant programs or problems first. If effectively implemented, the initiative may assist agencies in resolving long-standing security weaknesses.    The National Cybersecurity Protection System is intended to detect and prevent malicious network traffic from entering Federal civilian networks, among other things. GAO is presently reviewing the implementation of this system. Our preliminary observations indicate that the system's intrusion detection and prevention capabilities may be useful, but are also limited.    While Government-wide initiatives hold promise for bolstering the Federal cybersecurity posture, no single technology or set of practices is sufficient to protect against all cyber threats. A multi-layered defense-in-depth strategy that includes well-trained personnel, effective and consistently applied processes, and appropriate technologies is needed to better manage these risks.    This concludes my statement. I'd be happy to answer your questions.</t>
   </si>
   <si>
@@ -178,6 +205,12 @@
     <t>412672</t>
   </si>
   <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Donovan. Thank you very much, Mr. Chairman.    Doctor, I was just wondering if you could help me understand this a little bit. There has been a lot of criticism in the reportings about the breach that EINSTEIN didn't work.    My understanding is that it did what it was built to do and it was part of a multi-layered approach to securing the data and part of this defense-in-depth theory.    Did EINSTEIN actually do what it was created to do?</t>
   </si>
   <si>
@@ -205,6 +238,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    I want to thank our witnesses here today.    I want to point out one thing before I go into my questions. We talk about the rollout of EINSTEIN 3 and where we are today. It is unacceptable that we are at this for the better part of a decade now and still such a small percentage of the .gov network has even basic levels of EINSTEIN 3 on it yet.    We have a long way to go. I understand that we are making progress and rolling out EINSTEIN 3 to protect the .gov network, but it is laughable that it has taken this long to get to this point.    Part of the reason, Mr. Chairman, is the fact that no one is in charge despite the fact that we have a cyber coordinator--and I applaud the work that Michael Daniel does with limited tools, really, at his disposal because he lacks policy and budgetary authority to compel compliance of departments and agencies to do more in cyber. Neither does the Secretary of Homeland Security.    I know that in the last Congress we gave additional authorities through FISMA reform, but still even the Secretary of Homeland Security does not have the ability to reach across Government and tell an agency like OPM they are not doing enough on cyber, which is why we are here today and is why the OPM breach happened, because OPM did not take cybersecurity seriously enough.    It wasn't even like they were coming to Congress and asking for more resources. It was only until fiscal year 2016 that they asked for more money for cyber. It wasn't like they were coming here asking for money and they were told no. They didn't even ask. They weren't taking cyber seriously.    So I hope that, at some point, we will get somebody in charge that does have both policy and budgetary authority who can compel compliance of departments and agencies.    But, with that, Dr. Ozment, I noticed that you were at the OGR hearing earlier this morning, and I have a number of questions about the OPM breach.    So, to begin with--and I know the Chairman touched on this briefly on the encryption side--you said that encrypting data stolen may not have helped in this case. Now, you are not suggesting that we shouldn't encrypt, I take it. I want to make sure that you have the opportunity to be clear.    What is your view on encryption? Because I hope you would still agree that encrypting PII is still a best practice that agencies should be following. Is that correct?</t>
   </si>
   <si>
@@ -238,6 +277,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jackson Lee. Mr. Chairman, thank you for your kindness and that of the Ranking Member, first of all, for this very important hearing, and my dear colleague, Mr. Clawson, for yielding not his time, but his place in order, to allow me just a moment.    I have a meeting with the Secretary--and it is starting as we speak--on some matters. But this committee I have always said has been the front-line committee.    Mr. Langevin is correct that we have been talking about the issues of cybersecurity and protecting data and documents for a very long time. You know, I know there is a myriad of issues that we are discussing, but it disturbs me that, in fact--and we heard this generally--OPM used old software that could not be encrypted. We face this enormous debacle that has many fingerprints. We know that there are many elements to it.    I know that I served as the Chairwoman of the Transportation Security and Infrastructure Protection Committee before the Cybersecurity Committee was created, and we talked about the percentage of infrastructure in the cyber world in the private sector--85 percent--and that we had a small percentage thereof.    So I guess for the record I want to express the recognition of our public servants who work very hard, but my absolute consternation and frustration that we are where we are today, task forces that are being discerned and established not necessarily under this administration.    Because, if it was 2015 under another administration--unfortunately, hard heads made a very difficult spot to sit down on. I am baffled why the Government finds itself in this place.    My colleague indicated resources, that that was one of the issues, but focusing one's mind--we talked about getting the brightest and the best to be able to address this question. We predicted it was coming. Not that we were geniuses, but the writing was on the wall. Everyone was turning to technology. Everyone was using technology.    I am enormously saddened for the millions of Federal workers in this recent incident that are now subjected to personal violations. But from the White House to the vast array of Federal departments, agencies, we are not the standard-bearer for the tightest cybersecurity that we can have, having at hand, I think, a bipartisan commitment that this is a serious issue. Many legislative initiatives have been introduced.    So let me just ask. I indicated to Mr. Clawson I would not be long. I have a number of questions. My staff, Mr. Chairman, is going to frame them in a letter.    Let me indicate that some very thoughtful questions have been put forward, but I do want to heighten this level of frustration. I could listen to the Government Accountability, but let me just ask the two witnesses, being mindful of the time.    You have heard my level of frustration. We are here today. Will we be here next week? Will we be here next month? Will we be here next year? This hacking, breaching, is not going to stop.    So I just want to ask this question: Why is the Government at this place at this time? Why are we here?</t>
   </si>
   <si>
@@ -280,6 +325,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming today.    I am going to lay out a couple of observations, two or three maybe, and then you all can respond and tell me if you agree with me or where you think I am wrong.    My first observation is, if one of my nieces and nephews came to me and said they were going to take a job at the Federal Government, I would say, ``Don't do it. Your information is not secure. It is probably a lot less secure than most places you could go to work.''    Therefore, I am not sure how we attract great talent to do the things that we talk about doing in this committee not just for the security, but just to run the Government.    I am not sure that putting employees at this kind of risk will attract ``A'' players to work in the Government. Just all of my instincts tell me there is going to be residual impact from these kind of breaches that impact how well the Government does across the board. That is my first observation.    My second observation is, if I was sitting there running that enterprise, I would say to myself, ``Delete, delete, and more delete.'' My guess is that there is a lot of legacy data that aren't mission-critical right now, right now, particularly employees that have come and gone, records that are years old.    I know you are going to tell me you can't. But all of my own managerial experience would say to delete the hell out of this so that, even though that might make our job more difficult in the future, it will make the hacker's job impossible. He can't hack what doesn't exist.    My third observation would be, from a managerial perspective, to decentralize. Even if you roll it up on the internet in summary format later, decentralize. Decentralize everywhere you can.    I understand that everybody wants an ERP on a centralized basis, but do that at a summary level and keep the data decentralized so that the hacker's job is much more complicated and you don't have a mother lode of data that he can get into.    Now, I know you are going to take issue with those things. But if this was my board of directors and you all came in with this problem to me, those would be my first three reactions. If we ignore those outcomes and those possible solutions, it seems to me that we are living in yesterday's world.    Now, I know you are going to tell me why what I say is impracticable, but I still want to hear from you.</t>
   </si>
   <si>
@@ -319,6 +370,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    I know it is a little unexpected. Sorry to be late to the game here.    I am thinking about like the data services hub and the law that we have in place now in particular where you are required by law to be involved in the Government and then, by transposition, your data is then within the Government purview and then we don't necessarily have the best systems, maybe, that we could or should and how we also, as a Government, treat private entities that have been hacked and we penalize them for having not done enough soon enough or notified appropriately or what have you.    I don't know how we have the moral high ground, as the Federal Government in this, you know, and we are not necessarily talking about the particular OPM breach, but because these things happen on a--at least the hacks happen on a regular basis. Right? We know that there are those who have been hacked and those who don't know it yet. Right? That is kind of how things go.    So DHS, I think, has done everything within their current power. Right? They have advised. They have urged other agencies, ``This is the gold standard. This is where you need to be.'' But they still have no authority to force the agencies, like OPM or anybody else.    They can tell them where they think they should be based on what DHS knows. ``This is why we have the Department of Homeland Security, among other reasons, is to determine threats that we have and solutions sets'' and so on and so forth. So they can advise, but they have no authority.    So, in a broad sense, my question to you would be: Should DHS have the authority regarding other agencies to impose--we are talking about individual citizen's data which, in this particular instance, not necessarily OPM, but the data services hub associated with the ACA.    You are mandated by Federal law to have your data, everything about you, be in that repository. If that is the case, should it be DHS? Should they have the authority? If not, who? If not anybody, then what is the solution set to make sure that agencies are on the cutting edge of safeguarding America's data?</t>
   </si>
   <si>
@@ -347,6 +404,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. You may be seated.    Dr. Gerstein's full statement will appear in the record.    The Chair recognizes you now for 5 minutes for an opening statement.</t>
+  </si>
+  <si>
+    <t>Gerstein</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gerstein. Well, thank you. Good afternoon.    Chairman Ratcliffe, Ranking Member Richmond, and distinguished Members of the subcommittee, I thank you for the opportunity to testify today on the strategies for defending U.S. Government networks in cyberspace.    Recent events occurring on U.S. Government networks over the past several years, punctuated most recently by the OPM breach, demonstrate clearly the need for developing and maintaining capabilities to assess the status of the Government's internal networks and protect them from intrusion.    These events have also underscored concerns about the growing sophistication of the threat and the risk posed to personal data, Government networks, and even mission assurance.    Two foundational elements of the Department of Homeland Security's cybersecurity program are EINSTEIN, also called EINSTEIN 3A, and Continuous Diagnostics and Mitigation, or CDM. The two systems are designed to work in tandem, with EINSTEIN focusing on keeping threats out of Federal networks and CDM identifying them when the threats are inside the Government networks. The phased rollouts of both CDM and EINSTEIN are expected to continue over the next several years.    Now, despite recent progress, critics have argued that both programs have taken too long to implement, and I have to say there is some validity to these concerns. However, CDM is now at a point in development and deployment where additional resources could accelerate the program. EINSTEIN, on the other hand, still requires additional development and coordination with internet service providers, which will be contracted to implement the program.    In my judgment, both programs are necessary, but not sufficient for ensuring the security of Government networks. Therefore, even with EINSTEIN and CDM, more will be needed to defend Government networks in cyber space.    For the remainder of my remarks, I would like to provide a more strategic look at this issue. Now, the internet is a complex system of systems, requiring a comprehensive approach to ensuring security across the vast Government network. Any single approach or program will be insufficient to ensure security in cyber space. As such, defense-in-depth strategies will be essential for securing Government networks.    Now, when considering the development of a comprehensive cybersecurity approach, one must examine how new policies and processes, improvements to the internet architecture, hardware and software hardening, and personnel training and education must be combined into a system that will provide security, privacy, and resiliency.    Inherent in efforts to secure the Federal cyberspace is the critical need for a National cybersecurity strategy. Such a document would include articulation of concepts for governance of the .gov domain in addition to cyber doctrine for deterrence, denial, attribution, response, and resilience. Today no such doctrine exists.    It is my belief that the U.S. Government is at a crossroads concerning cybersecurity. The goal to date has been to balance two competing demands: Availability of data and security of the enterprise.    As recent breaches have demonstrated over the past several years and with the OPM breach as an exclamation point, it is time to consider developing secure enclaves to protect key Government information, data, and networks.    The technology exists today to re-architect the Government internet systems, and several agencies within the National security community have implemented such re-engineering with good results.    Implementing these approaches to modernize and improve the security architectures will require resources and focused attention, both of which Congress and the Executive branch can provide.    Appropriate funding for research, development, and acquisition programs remains another foundational element in the critical race to secure Federal Government networks. Government must partner with the cyber industries to ensure the pipeline of critical solutions continues to be developed.    Finally, workforce issues both for cyber professionals that manage the Government networks and for the broader Government workforce that utilizes the network must be considered as a top priority.    In the Government's cyber space, the security of the overall network is directly linked to the security of each of the nodes, to include the individuals operating each terminal device.    I appreciate the opportunity to discuss recommendations to improve cybersecurity in our Government networks and, thereby, the homeland security of our Nation, and I look forward to your questions. Thank you.</t>
@@ -785,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,2909 +875,3423 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>30</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G42" t="s">
+        <v>63</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G44" t="s">
+        <v>63</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
       <c r="H48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G50" t="s">
+        <v>74</v>
+      </c>
       <c r="H50" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>30</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
       <c r="H52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>30</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
       <c r="H54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s">
+        <v>74</v>
+      </c>
       <c r="H56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>87</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G60" t="s">
+        <v>87</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G62" t="s">
+        <v>87</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G64" t="s">
+        <v>87</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G65" t="s">
+        <v>87</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G67" t="s">
+        <v>87</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>22</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="G69" t="s">
+        <v>87</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G71" t="s">
+        <v>103</v>
+      </c>
       <c r="H71" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>22</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G73" t="s">
+        <v>103</v>
+      </c>
       <c r="H73" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G75" t="s">
+        <v>103</v>
+      </c>
       <c r="H75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>22</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G77" t="s">
+        <v>103</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G79" t="s">
+        <v>103</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G81" t="s">
+        <v>103</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G83" t="s">
+        <v>118</v>
+      </c>
       <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G85" t="s">
+        <v>118</v>
+      </c>
       <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G87" t="s">
+        <v>74</v>
+      </c>
       <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G89" t="s">
+        <v>118</v>
+      </c>
       <c r="H89" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
       <c r="H91" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>130</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>130</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
       <c r="H101" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s">
+        <v>130</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G103" t="s">
+        <v>74</v>
+      </c>
       <c r="H103" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G105" t="s">
+        <v>74</v>
+      </c>
       <c r="H105" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
       <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>100</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G109" t="s">
+        <v>118</v>
+      </c>
       <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>100</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G111" t="s">
+        <v>118</v>
+      </c>
       <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>18</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s">
+        <v>130</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G116" t="s">
+        <v>18</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>100</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G117" t="s">
+        <v>118</v>
+      </c>
       <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>22</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G118" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>100</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G119" t="s">
+        <v>118</v>
+      </c>
       <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>22</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>100</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>117</v>
+      </c>
+      <c r="G121" t="s">
+        <v>118</v>
+      </c>
       <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>119</v>
+      </c>
+      <c r="I121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96169.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="166">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Ratcliffe</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412432</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Richmond</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400654</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>McCaul</t>
   </si>
   <si>
@@ -203,6 +215,9 @@
   </si>
   <si>
     <t>412672</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Donovan</t>
@@ -845,7 +860,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,7 +868,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,3420 +893,3692 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="s">
-        <v>30</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H50" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H58" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>33</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>37</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H62" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>33</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G71" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>33</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" t="s">
-        <v>33</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G75" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H75" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I75" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" t="s">
-        <v>33</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G77" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G79" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H79" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G81" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G83" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H83" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" t="s">
-        <v>33</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G85" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" t="s">
-        <v>33</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>37</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H87" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H89" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>130</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>135</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>130</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>135</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>130</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="98" spans="1:9">
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>130</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G101" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H101" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" t="s">
-        <v>130</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>135</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H103" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I103" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" t="s">
-        <v>130</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>135</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I105" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>130</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>135</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G107" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H107" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I107" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G109" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H109" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I109" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J109" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" t="s">
-        <v>130</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>135</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G111" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H111" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I111" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>130</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>135</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G114" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>130</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>135</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I116" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G117" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H117" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I117" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
-      </c>
-      <c r="G118" t="s">
-        <v>130</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>135</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G119" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H119" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I119" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>29</v>
-      </c>
-      <c r="G120" t="s">
-        <v>130</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>135</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G121" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="H121" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>124</v>
+      </c>
+      <c r="J121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
